--- a/OYM/_DocumentosComunes/AL.xlsx
+++ b/OYM/_DocumentosComunes/AL.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\_DESARROLLO\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_DESARROLLO\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E69689B-C401-45DA-8500-1BE8A709AA2E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Page 1'!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Page 1'!$A$1:$L$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Page 1'!$A$1:$G$93</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -247,9 +248,6 @@
     <t>PATRICIO SALVADOR FERNANDEZ AYATS</t>
   </si>
   <si>
-    <t>a10</t>
-  </si>
-  <si>
     <t>a01</t>
   </si>
   <si>
@@ -263,18 +261,6 @@
   </si>
   <si>
     <t>a05</t>
-  </si>
-  <si>
-    <t>a06</t>
-  </si>
-  <si>
-    <t>a07</t>
-  </si>
-  <si>
-    <t>a08</t>
-  </si>
-  <si>
-    <t>a09</t>
   </si>
   <si>
     <t>p01</t>
@@ -295,7 +281,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -773,18 +759,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:V190"/>
+  <dimension ref="A1:Q190"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R33" sqref="R33"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -794,10 +780,10 @@
     <col min="6" max="7" width="6.42578125" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.85546875" customWidth="1"/>
-    <col min="10" max="22" width="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -818,52 +804,37 @@
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -874,11 +845,11 @@
         <v>7</v>
       </c>
       <c r="D2" s="6">
-        <f>H2+I2+J2+K2+L2+M2+N2+O2+P2+Q2</f>
+        <f>(H2+I2+J2+K2+L2)*2</f>
         <v>10</v>
       </c>
       <c r="E2" s="6">
-        <f>R2+S2+T2+U2+V2</f>
+        <f>M2+N2+O2+P2+Q2</f>
         <v>20</v>
       </c>
       <c r="F2" s="6">
@@ -903,37 +874,22 @@
         <v>1</v>
       </c>
       <c r="M2" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N2" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O2" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P2" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q2" s="3">
-        <v>1</v>
-      </c>
-      <c r="R2" s="3">
         <v>4</v>
       </c>
-      <c r="S2" s="3">
-        <v>4</v>
-      </c>
-      <c r="T2" s="3">
-        <v>4</v>
-      </c>
-      <c r="U2" s="3">
-        <v>4</v>
-      </c>
-      <c r="V2" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -944,11 +900,11 @@
         <v>9</v>
       </c>
       <c r="D3" s="6">
-        <f t="shared" ref="D3:D66" si="0">H3+I3+J3+K3+L3+M3+N3+O3+P3+Q3</f>
+        <f t="shared" ref="D3:D57" si="0">(H3+I3+J3+K3+L3)*2</f>
         <v>0</v>
       </c>
       <c r="E3" s="6">
-        <f t="shared" ref="E3:E52" si="1">R3+S3+T3+U3+V3</f>
+        <f t="shared" ref="E3:E66" si="1">M3+N3+O3+P3+Q3</f>
         <v>0</v>
       </c>
       <c r="F3" s="6"/>
@@ -963,13 +919,8 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-    </row>
-    <row r="4" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -981,7 +932,7 @@
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" si="1"/>
@@ -1001,13 +952,8 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-    </row>
-    <row r="5" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -1019,7 +965,7 @@
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" si="1"/>
@@ -1041,13 +987,8 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-    </row>
-    <row r="6" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1059,11 +1000,11 @@
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -1078,20 +1019,17 @@
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="M6" s="3">
+        <v>4</v>
+      </c>
+      <c r="N6" s="3">
+        <v>2.5</v>
+      </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="3">
-        <v>4</v>
-      </c>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-    </row>
-    <row r="7" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -1103,11 +1041,11 @@
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -1123,17 +1061,14 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="N7" s="3">
+        <v>2.5</v>
+      </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-    </row>
-    <row r="8" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -1163,13 +1098,8 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-    </row>
-    <row r="9" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -1181,11 +1111,11 @@
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -1199,17 +1129,14 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
+      <c r="N9" s="3">
+        <v>2.5</v>
+      </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-    </row>
-    <row r="10" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -1239,13 +1166,8 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-    </row>
-    <row r="11" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -1257,7 +1179,7 @@
       </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="1"/>
@@ -1276,20 +1198,15 @@
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="M11" s="3">
+        <v>1</v>
+      </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="3">
-        <v>1</v>
-      </c>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -1319,13 +1236,8 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-    </row>
-    <row r="13" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -1355,13 +1267,8 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-    </row>
-    <row r="14" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -1373,11 +1280,11 @@
       </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -1392,20 +1299,17 @@
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+      <c r="M14" s="3">
+        <v>1</v>
+      </c>
+      <c r="N14" s="3">
+        <v>2.5</v>
+      </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-      <c r="R14" s="3">
-        <v>1</v>
-      </c>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-    </row>
-    <row r="15" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -1417,7 +1321,7 @@
       </c>
       <c r="D15" s="6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="6">
         <f t="shared" si="1"/>
@@ -1432,20 +1336,15 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
+      <c r="M15" s="3">
+        <v>1</v>
+      </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="3">
-        <v>1</v>
-      </c>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-    </row>
-    <row r="16" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -1475,13 +1374,8 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -1511,13 +1405,8 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-    </row>
-    <row r="18" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -1547,13 +1436,8 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-    </row>
-    <row r="19" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -1583,13 +1467,8 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -1601,7 +1480,7 @@
       </c>
       <c r="D20" s="6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="1"/>
@@ -1620,20 +1499,15 @@
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="M20" s="3">
+        <v>1</v>
+      </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
-      <c r="R20" s="3">
-        <v>1</v>
-      </c>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-    </row>
-    <row r="21" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -1645,11 +1519,11 @@
       </c>
       <c r="D21" s="6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E21" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -1665,17 +1539,14 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
+      <c r="N21" s="3">
+        <v>2.5</v>
+      </c>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-    </row>
-    <row r="22" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -1705,13 +1576,8 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-    </row>
-    <row r="23" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -1741,13 +1607,8 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-    </row>
-    <row r="24" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -1777,13 +1638,8 @@
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-    </row>
-    <row r="25" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -1795,11 +1651,11 @@
       </c>
       <c r="D25" s="6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E25" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -1814,20 +1670,17 @@
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
+      <c r="M25" s="3">
+        <v>1</v>
+      </c>
+      <c r="N25" s="3">
+        <v>2.5</v>
+      </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
-      <c r="R25" s="3">
-        <v>1</v>
-      </c>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-    </row>
-    <row r="26" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -1839,11 +1692,11 @@
       </c>
       <c r="D26" s="6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E26" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -1859,17 +1712,14 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
+      <c r="N26" s="3">
+        <v>2.5</v>
+      </c>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-    </row>
-    <row r="27" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -1881,7 +1731,7 @@
       </c>
       <c r="D27" s="6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E27" s="6">
         <f t="shared" si="1"/>
@@ -1905,13 +1755,8 @@
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-    </row>
-    <row r="28" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -1941,13 +1786,8 @@
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-    </row>
-    <row r="29" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -1959,7 +1799,7 @@
       </c>
       <c r="D29" s="6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E29" s="6">
         <f t="shared" si="1"/>
@@ -1983,13 +1823,8 @@
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-    </row>
-    <row r="30" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -2001,7 +1836,7 @@
       </c>
       <c r="D30" s="6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" s="6">
         <f t="shared" si="1"/>
@@ -2016,20 +1851,15 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
+      <c r="M30" s="3">
+        <v>1</v>
+      </c>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
-      <c r="R30" s="3">
-        <v>1</v>
-      </c>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-    </row>
-    <row r="31" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -2041,7 +1871,7 @@
       </c>
       <c r="D31" s="6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E31" s="6">
         <f t="shared" si="1"/>
@@ -2065,13 +1895,8 @@
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-    </row>
-    <row r="32" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -2083,11 +1908,11 @@
       </c>
       <c r="D32" s="6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E32" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -2102,20 +1927,17 @@
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
+      <c r="M32" s="3">
+        <v>1</v>
+      </c>
+      <c r="N32" s="3">
+        <v>2.5</v>
+      </c>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
-      <c r="R32" s="3">
-        <v>1</v>
-      </c>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-    </row>
-    <row r="33" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -2127,11 +1949,11 @@
       </c>
       <c r="D33" s="6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E33" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -2146,20 +1968,17 @@
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
+      <c r="M33" s="3">
+        <v>1</v>
+      </c>
+      <c r="N33" s="3">
+        <v>2.5</v>
+      </c>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
-      <c r="R33" s="3">
-        <v>1</v>
-      </c>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-    </row>
-    <row r="34" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -2189,13 +2008,8 @@
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-    </row>
-    <row r="35" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -2207,11 +2021,11 @@
       </c>
       <c r="D35" s="6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E35" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -2226,20 +2040,17 @@
       </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
+      <c r="M35" s="3">
+        <v>1</v>
+      </c>
+      <c r="N35" s="3">
+        <v>2.5</v>
+      </c>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
-      <c r="R35" s="3">
-        <v>1</v>
-      </c>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-    </row>
-    <row r="36" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -2269,13 +2080,8 @@
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-    </row>
-    <row r="37" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -2305,13 +2111,8 @@
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-    </row>
-    <row r="38" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -2341,13 +2142,8 @@
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-    </row>
-    <row r="39" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -2377,13 +2173,8 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -2413,13 +2204,8 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -2449,13 +2235,8 @@
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
-    </row>
-    <row r="42" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -2485,13 +2266,8 @@
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
-      <c r="U42" s="3"/>
-      <c r="V42" s="3"/>
-    </row>
-    <row r="43" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -2521,13 +2297,8 @@
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3"/>
-    </row>
-    <row r="44" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -2557,13 +2328,8 @@
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
-      <c r="V44" s="3"/>
-    </row>
-    <row r="45" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -2593,13 +2359,8 @@
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
-      <c r="U45" s="3"/>
-      <c r="V45" s="3"/>
-    </row>
-    <row r="46" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -2629,13 +2390,8 @@
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
-      <c r="U46" s="3"/>
-      <c r="V46" s="3"/>
-    </row>
-    <row r="47" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -2665,13 +2421,8 @@
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
-      <c r="V47" s="3"/>
-    </row>
-    <row r="48" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -2701,13 +2452,8 @@
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
-      <c r="V48" s="3"/>
-    </row>
-    <row r="49" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -2737,13 +2483,8 @@
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="3"/>
-      <c r="V49" s="3"/>
-    </row>
-    <row r="50" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -2773,13 +2514,8 @@
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
-      <c r="U50" s="3"/>
-      <c r="V50" s="3"/>
-    </row>
-    <row r="51" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -2809,13 +2545,8 @@
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
-      <c r="U51" s="3"/>
-      <c r="V51" s="3"/>
-    </row>
-    <row r="52" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -2845,13 +2576,8 @@
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
-      <c r="U52" s="3"/>
-      <c r="V52" s="3"/>
-    </row>
-    <row r="53" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -2859,9 +2585,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E53" s="6" t="str">
-        <f t="shared" ref="E36:E66" si="4">IF((L53)&gt;=50,20,"")</f>
-        <v/>
+      <c r="E53" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F53" s="6" t="str">
         <f t="shared" si="2"/>
@@ -2881,13 +2607,8 @@
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
-      <c r="U53" s="3"/>
-      <c r="V53" s="3"/>
-    </row>
-    <row r="54" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -2895,9 +2616,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E54" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E54" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F54" s="6" t="str">
         <f t="shared" si="2"/>
@@ -2917,13 +2638,8 @@
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
-      <c r="U54" s="3"/>
-      <c r="V54" s="3"/>
-    </row>
-    <row r="55" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -2931,9 +2647,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E55" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E55" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F55" s="6" t="str">
         <f t="shared" si="2"/>
@@ -2953,13 +2669,8 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
-      <c r="U55" s="3"/>
-      <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -2967,9 +2678,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E56" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E56" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F56" s="6" t="str">
         <f t="shared" si="2"/>
@@ -2989,13 +2700,8 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -3003,9 +2709,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E57" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="E57" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F57" s="6" t="str">
         <f t="shared" si="2"/>
@@ -3025,23 +2731,18 @@
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
-      <c r="U57" s="3"/>
-      <c r="V57" s="3"/>
-    </row>
-    <row r="58" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E58" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ref="D58:D77" si="4">H58+I58+J58+K58+L58</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F58" s="6" t="str">
         <f t="shared" si="2"/>
@@ -3061,23 +2762,18 @@
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
-      <c r="U58" s="3"/>
-      <c r="V58" s="3"/>
-    </row>
-    <row r="59" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E59" s="6" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="E59" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F59" s="6" t="str">
         <f t="shared" si="2"/>
@@ -3097,23 +2793,18 @@
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
-      <c r="U59" s="3"/>
-      <c r="V59" s="3"/>
-    </row>
-    <row r="60" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E60" s="6" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="E60" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F60" s="6" t="str">
         <f t="shared" si="2"/>
@@ -3133,23 +2824,18 @@
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
-      <c r="U60" s="3"/>
-      <c r="V60" s="3"/>
-    </row>
-    <row r="61" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E61" s="6" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="E61" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F61" s="6" t="str">
         <f t="shared" si="2"/>
@@ -3169,23 +2855,18 @@
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
-      <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
-      <c r="U61" s="3"/>
-      <c r="V61" s="3"/>
-    </row>
-    <row r="62" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E62" s="6" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="E62" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F62" s="6" t="str">
         <f t="shared" si="2"/>
@@ -3205,23 +2886,18 @@
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
-      <c r="S62" s="3"/>
-      <c r="T62" s="3"/>
-      <c r="U62" s="3"/>
-      <c r="V62" s="3"/>
-    </row>
-    <row r="63" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E63" s="6" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="E63" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F63" s="6" t="str">
         <f t="shared" si="2"/>
@@ -3241,23 +2917,18 @@
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
-      <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
-      <c r="U63" s="3"/>
-      <c r="V63" s="3"/>
-    </row>
-    <row r="64" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E64" s="6" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="E64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F64" s="6" t="str">
         <f t="shared" si="2"/>
@@ -3277,23 +2948,18 @@
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
-      <c r="S64" s="3"/>
-      <c r="T64" s="3"/>
-      <c r="U64" s="3"/>
-      <c r="V64" s="3"/>
-    </row>
-    <row r="65" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E65" s="6" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="E65" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F65" s="6" t="str">
         <f t="shared" si="2"/>
@@ -3313,23 +2979,18 @@
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
-      <c r="R65" s="3"/>
-      <c r="S65" s="3"/>
-      <c r="T65" s="3"/>
-      <c r="U65" s="3"/>
-      <c r="V65" s="3"/>
-    </row>
-    <row r="66" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E66" s="6" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="E66" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F66" s="6" t="str">
         <f t="shared" si="2"/>
@@ -3349,30 +3010,25 @@
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
-      <c r="R66" s="3"/>
-      <c r="S66" s="3"/>
-      <c r="T66" s="3"/>
-      <c r="U66" s="3"/>
-      <c r="V66" s="3"/>
-    </row>
-    <row r="67" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="6">
-        <f t="shared" ref="D67:D130" si="5">H67+I67+J67+K67+L67+M67+N67+O67+P67+Q67</f>
-        <v>0</v>
-      </c>
-      <c r="E67" s="6" t="str">
-        <f t="shared" ref="E67:E130" si="6">IF((L67)&gt;=50,20,"")</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E67" s="6">
+        <f t="shared" ref="E67:E107" si="5">M67+N67+O67+P67+Q67</f>
+        <v>0</v>
       </c>
       <c r="F67" s="6" t="str">
-        <f t="shared" ref="F67:F130" si="7">IF((L67)&gt;=50,20,"")</f>
+        <f t="shared" ref="F67:F130" si="6">IF((L67)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G67" s="6" t="str">
-        <f t="shared" ref="G67:G130" si="8">IF((L67)&gt;=51,IF((L67-50)&gt;50,50,IF((L67-50)&lt;0,0,(L67-50))), "" )</f>
+        <f t="shared" ref="G67:G130" si="7">IF((L67)&gt;=51,IF((L67-50)&gt;50,50,IF((L67-50)&lt;0,0,(L67-50))), "" )</f>
         <v/>
       </c>
       <c r="H67" s="3"/>
@@ -3385,30 +3041,25 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
-      <c r="S67" s="3"/>
-      <c r="T67" s="3"/>
-      <c r="U67" s="3"/>
-      <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E68" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E68" s="6" t="str">
+      <c r="F68" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F68" s="6" t="str">
+      <c r="G68" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G68" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H68" s="3"/>
@@ -3421,30 +3072,25 @@
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
-      <c r="R68" s="3"/>
-      <c r="S68" s="3"/>
-      <c r="T68" s="3"/>
-      <c r="U68" s="3"/>
-      <c r="V68" s="3"/>
-    </row>
-    <row r="69" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E69" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E69" s="6" t="str">
+      <c r="F69" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F69" s="6" t="str">
+      <c r="G69" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G69" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H69" s="3"/>
@@ -3457,30 +3103,25 @@
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
       <c r="Q69" s="3"/>
-      <c r="R69" s="3"/>
-      <c r="S69" s="3"/>
-      <c r="T69" s="3"/>
-      <c r="U69" s="3"/>
-      <c r="V69" s="3"/>
-    </row>
-    <row r="70" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E70" s="6" t="str">
+      <c r="F70" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F70" s="6" t="str">
+      <c r="G70" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G70" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H70" s="3"/>
@@ -3493,30 +3134,25 @@
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
-      <c r="R70" s="3"/>
-      <c r="S70" s="3"/>
-      <c r="T70" s="3"/>
-      <c r="U70" s="3"/>
-      <c r="V70" s="3"/>
-    </row>
-    <row r="71" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E71" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E71" s="6" t="str">
+      <c r="F71" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F71" s="6" t="str">
+      <c r="G71" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G71" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H71" s="3"/>
@@ -3529,30 +3165,25 @@
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
       <c r="Q71" s="3"/>
-      <c r="R71" s="3"/>
-      <c r="S71" s="3"/>
-      <c r="T71" s="3"/>
-      <c r="U71" s="3"/>
-      <c r="V71" s="3"/>
-    </row>
-    <row r="72" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E72" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E72" s="6" t="str">
+      <c r="F72" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F72" s="6" t="str">
+      <c r="G72" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G72" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H72" s="3"/>
@@ -3565,30 +3196,25 @@
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
-      <c r="R72" s="3"/>
-      <c r="S72" s="3"/>
-      <c r="T72" s="3"/>
-      <c r="U72" s="3"/>
-      <c r="V72" s="3"/>
-    </row>
-    <row r="73" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E73" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E73" s="6" t="str">
+      <c r="F73" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F73" s="6" t="str">
+      <c r="G73" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G73" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H73" s="3"/>
@@ -3601,30 +3227,25 @@
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
       <c r="Q73" s="3"/>
-      <c r="R73" s="3"/>
-      <c r="S73" s="3"/>
-      <c r="T73" s="3"/>
-      <c r="U73" s="3"/>
-      <c r="V73" s="3"/>
-    </row>
-    <row r="74" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E74" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E74" s="6" t="str">
+      <c r="F74" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F74" s="6" t="str">
+      <c r="G74" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G74" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H74" s="3"/>
@@ -3637,30 +3258,25 @@
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
-      <c r="R74" s="3"/>
-      <c r="S74" s="3"/>
-      <c r="T74" s="3"/>
-      <c r="U74" s="3"/>
-      <c r="V74" s="3"/>
-    </row>
-    <row r="75" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E75" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E75" s="6" t="str">
+      <c r="F75" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F75" s="6" t="str">
+      <c r="G75" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G75" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H75" s="3"/>
@@ -3673,30 +3289,25 @@
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
-      <c r="R75" s="3"/>
-      <c r="S75" s="3"/>
-      <c r="T75" s="3"/>
-      <c r="U75" s="3"/>
-      <c r="V75" s="3"/>
-    </row>
-    <row r="76" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E76" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E76" s="6" t="str">
+      <c r="F76" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F76" s="6" t="str">
+      <c r="G76" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G76" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H76" s="3"/>
@@ -3709,30 +3320,25 @@
       <c r="O76" s="3"/>
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
-      <c r="R76" s="3"/>
-      <c r="S76" s="3"/>
-      <c r="T76" s="3"/>
-      <c r="U76" s="3"/>
-      <c r="V76" s="3"/>
-    </row>
-    <row r="77" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E77" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E77" s="6" t="str">
+      <c r="F77" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F77" s="6" t="str">
+      <c r="G77" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G77" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H77" s="3"/>
@@ -3745,30 +3351,25 @@
       <c r="O77" s="3"/>
       <c r="P77" s="3"/>
       <c r="Q77" s="3"/>
-      <c r="R77" s="3"/>
-      <c r="S77" s="3"/>
-      <c r="T77" s="3"/>
-      <c r="U77" s="3"/>
-      <c r="V77" s="3"/>
-    </row>
-    <row r="78" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="6">
+        <f t="shared" ref="D78:D141" si="8">H78+I78+J78+K78+L78</f>
+        <v>0</v>
+      </c>
+      <c r="E78" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E78" s="6" t="str">
+      <c r="F78" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F78" s="6" t="str">
+      <c r="G78" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G78" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H78" s="3"/>
@@ -3781,30 +3382,25 @@
       <c r="O78" s="3"/>
       <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
-      <c r="R78" s="3"/>
-      <c r="S78" s="3"/>
-      <c r="T78" s="3"/>
-      <c r="U78" s="3"/>
-      <c r="V78" s="3"/>
-    </row>
-    <row r="79" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E79" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E79" s="6" t="str">
+      <c r="F79" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F79" s="6" t="str">
+      <c r="G79" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G79" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H79" s="3"/>
@@ -3817,30 +3413,25 @@
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
       <c r="Q79" s="3"/>
-      <c r="R79" s="3"/>
-      <c r="S79" s="3"/>
-      <c r="T79" s="3"/>
-      <c r="U79" s="3"/>
-      <c r="V79" s="3"/>
-    </row>
-    <row r="80" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E80" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E80" s="6" t="str">
+      <c r="F80" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F80" s="6" t="str">
+      <c r="G80" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G80" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H80" s="3"/>
@@ -3853,30 +3444,25 @@
       <c r="O80" s="3"/>
       <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
-      <c r="R80" s="3"/>
-      <c r="S80" s="3"/>
-      <c r="T80" s="3"/>
-      <c r="U80" s="3"/>
-      <c r="V80" s="3"/>
-    </row>
-    <row r="81" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E81" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E81" s="6" t="str">
+      <c r="F81" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F81" s="6" t="str">
+      <c r="G81" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G81" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H81" s="3"/>
@@ -3889,30 +3475,25 @@
       <c r="O81" s="3"/>
       <c r="P81" s="3"/>
       <c r="Q81" s="3"/>
-      <c r="R81" s="3"/>
-      <c r="S81" s="3"/>
-      <c r="T81" s="3"/>
-      <c r="U81" s="3"/>
-      <c r="V81" s="3"/>
-    </row>
-    <row r="82" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E82" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E82" s="6" t="str">
+      <c r="F82" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F82" s="6" t="str">
+      <c r="G82" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G82" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H82" s="3"/>
@@ -3925,30 +3506,25 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-      <c r="R82" s="3"/>
-      <c r="S82" s="3"/>
-      <c r="T82" s="3"/>
-      <c r="U82" s="3"/>
-      <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E83" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E83" s="6" t="str">
+      <c r="F83" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F83" s="6" t="str">
+      <c r="G83" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G83" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H83" s="3"/>
@@ -3961,30 +3537,25 @@
       <c r="O83" s="3"/>
       <c r="P83" s="3"/>
       <c r="Q83" s="3"/>
-      <c r="R83" s="3"/>
-      <c r="S83" s="3"/>
-      <c r="T83" s="3"/>
-      <c r="U83" s="3"/>
-      <c r="V83" s="3"/>
-    </row>
-    <row r="84" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E84" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E84" s="6" t="str">
+      <c r="F84" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F84" s="6" t="str">
+      <c r="G84" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G84" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H84" s="3"/>
@@ -3997,30 +3568,25 @@
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
-      <c r="R84" s="3"/>
-      <c r="S84" s="3"/>
-      <c r="T84" s="3"/>
-      <c r="U84" s="3"/>
-      <c r="V84" s="3"/>
-    </row>
-    <row r="85" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E85" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E85" s="6" t="str">
+      <c r="F85" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F85" s="6" t="str">
+      <c r="G85" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G85" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H85" s="3"/>
@@ -4033,30 +3599,25 @@
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
       <c r="Q85" s="3"/>
-      <c r="R85" s="3"/>
-      <c r="S85" s="3"/>
-      <c r="T85" s="3"/>
-      <c r="U85" s="3"/>
-      <c r="V85" s="3"/>
-    </row>
-    <row r="86" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E86" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E86" s="6" t="str">
+      <c r="F86" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F86" s="6" t="str">
+      <c r="G86" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G86" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H86" s="3"/>
@@ -4069,30 +3630,25 @@
       <c r="O86" s="3"/>
       <c r="P86" s="3"/>
       <c r="Q86" s="3"/>
-      <c r="R86" s="3"/>
-      <c r="S86" s="3"/>
-      <c r="T86" s="3"/>
-      <c r="U86" s="3"/>
-      <c r="V86" s="3"/>
-    </row>
-    <row r="87" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E87" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E87" s="6" t="str">
+      <c r="F87" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F87" s="6" t="str">
+      <c r="G87" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G87" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H87" s="3"/>
@@ -4105,30 +3661,25 @@
       <c r="O87" s="3"/>
       <c r="P87" s="3"/>
       <c r="Q87" s="3"/>
-      <c r="R87" s="3"/>
-      <c r="S87" s="3"/>
-      <c r="T87" s="3"/>
-      <c r="U87" s="3"/>
-      <c r="V87" s="3"/>
-    </row>
-    <row r="88" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E88" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E88" s="6" t="str">
+      <c r="F88" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F88" s="6" t="str">
+      <c r="G88" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G88" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H88" s="3"/>
@@ -4141,30 +3692,25 @@
       <c r="O88" s="3"/>
       <c r="P88" s="3"/>
       <c r="Q88" s="3"/>
-      <c r="R88" s="3"/>
-      <c r="S88" s="3"/>
-      <c r="T88" s="3"/>
-      <c r="U88" s="3"/>
-      <c r="V88" s="3"/>
-    </row>
-    <row r="89" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E89" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E89" s="6" t="str">
+      <c r="F89" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F89" s="6" t="str">
+      <c r="G89" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G89" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H89" s="3"/>
@@ -4177,30 +3723,25 @@
       <c r="O89" s="3"/>
       <c r="P89" s="3"/>
       <c r="Q89" s="3"/>
-      <c r="R89" s="3"/>
-      <c r="S89" s="3"/>
-      <c r="T89" s="3"/>
-      <c r="U89" s="3"/>
-      <c r="V89" s="3"/>
-    </row>
-    <row r="90" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E90" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E90" s="6" t="str">
+      <c r="F90" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F90" s="6" t="str">
+      <c r="G90" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G90" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H90" s="3"/>
@@ -4213,30 +3754,25 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-      <c r="R90" s="3"/>
-      <c r="S90" s="3"/>
-      <c r="T90" s="3"/>
-      <c r="U90" s="3"/>
-      <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E91" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E91" s="6" t="str">
+      <c r="F91" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F91" s="6" t="str">
+      <c r="G91" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G91" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H91" s="3"/>
@@ -4249,30 +3785,25 @@
       <c r="O91" s="3"/>
       <c r="P91" s="3"/>
       <c r="Q91" s="3"/>
-      <c r="R91" s="3"/>
-      <c r="S91" s="3"/>
-      <c r="T91" s="3"/>
-      <c r="U91" s="3"/>
-      <c r="V91" s="3"/>
-    </row>
-    <row r="92" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E92" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E92" s="6" t="str">
+      <c r="F92" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F92" s="6" t="str">
+      <c r="G92" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G92" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H92" s="3"/>
@@ -4285,30 +3816,25 @@
       <c r="O92" s="3"/>
       <c r="P92" s="3"/>
       <c r="Q92" s="3"/>
-      <c r="R92" s="3"/>
-      <c r="S92" s="3"/>
-      <c r="T92" s="3"/>
-      <c r="U92" s="3"/>
-      <c r="V92" s="3"/>
-    </row>
-    <row r="93" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E93" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E93" s="6" t="str">
+      <c r="F93" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F93" s="6" t="str">
+      <c r="G93" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G93" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H93" s="3"/>
@@ -4321,30 +3847,25 @@
       <c r="O93" s="3"/>
       <c r="P93" s="3"/>
       <c r="Q93" s="3"/>
-      <c r="R93" s="3"/>
-      <c r="S93" s="3"/>
-      <c r="T93" s="3"/>
-      <c r="U93" s="3"/>
-      <c r="V93" s="3"/>
-    </row>
-    <row r="94" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E94" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E94" s="6" t="str">
+      <c r="F94" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F94" s="6" t="str">
+      <c r="G94" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G94" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H94" s="3"/>
@@ -4357,30 +3878,25 @@
       <c r="O94" s="3"/>
       <c r="P94" s="3"/>
       <c r="Q94" s="3"/>
-      <c r="R94" s="3"/>
-      <c r="S94" s="3"/>
-      <c r="T94" s="3"/>
-      <c r="U94" s="3"/>
-      <c r="V94" s="3"/>
-    </row>
-    <row r="95" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E95" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E95" s="6" t="str">
+      <c r="F95" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F95" s="6" t="str">
+      <c r="G95" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G95" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H95" s="3"/>
@@ -4393,30 +3909,25 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-      <c r="R95" s="3"/>
-      <c r="S95" s="3"/>
-      <c r="T95" s="3"/>
-      <c r="U95" s="3"/>
-      <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E96" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E96" s="6" t="str">
+      <c r="F96" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F96" s="6" t="str">
+      <c r="G96" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G96" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H96" s="3"/>
@@ -4429,30 +3940,25 @@
       <c r="O96" s="3"/>
       <c r="P96" s="3"/>
       <c r="Q96" s="3"/>
-      <c r="R96" s="3"/>
-      <c r="S96" s="3"/>
-      <c r="T96" s="3"/>
-      <c r="U96" s="3"/>
-      <c r="V96" s="3"/>
-    </row>
-    <row r="97" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E97" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E97" s="6" t="str">
+      <c r="F97" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F97" s="6" t="str">
+      <c r="G97" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G97" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H97" s="3"/>
@@ -4465,30 +3971,25 @@
       <c r="O97" s="3"/>
       <c r="P97" s="3"/>
       <c r="Q97" s="3"/>
-      <c r="R97" s="3"/>
-      <c r="S97" s="3"/>
-      <c r="T97" s="3"/>
-      <c r="U97" s="3"/>
-      <c r="V97" s="3"/>
-    </row>
-    <row r="98" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E98" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E98" s="6" t="str">
+      <c r="F98" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F98" s="6" t="str">
+      <c r="G98" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G98" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H98" s="3"/>
@@ -4501,30 +4002,25 @@
       <c r="O98" s="3"/>
       <c r="P98" s="3"/>
       <c r="Q98" s="3"/>
-      <c r="R98" s="3"/>
-      <c r="S98" s="3"/>
-      <c r="T98" s="3"/>
-      <c r="U98" s="3"/>
-      <c r="V98" s="3"/>
-    </row>
-    <row r="99" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E99" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E99" s="6" t="str">
+      <c r="F99" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F99" s="6" t="str">
+      <c r="G99" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G99" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H99" s="3"/>
@@ -4537,30 +4033,25 @@
       <c r="O99" s="3"/>
       <c r="P99" s="3"/>
       <c r="Q99" s="3"/>
-      <c r="R99" s="3"/>
-      <c r="S99" s="3"/>
-      <c r="T99" s="3"/>
-      <c r="U99" s="3"/>
-      <c r="V99" s="3"/>
-    </row>
-    <row r="100" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E100" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E100" s="6" t="str">
+      <c r="F100" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F100" s="6" t="str">
+      <c r="G100" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G100" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H100" s="3"/>
@@ -4573,30 +4064,25 @@
       <c r="O100" s="3"/>
       <c r="P100" s="3"/>
       <c r="Q100" s="3"/>
-      <c r="R100" s="3"/>
-      <c r="S100" s="3"/>
-      <c r="T100" s="3"/>
-      <c r="U100" s="3"/>
-      <c r="V100" s="3"/>
-    </row>
-    <row r="101" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E101" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E101" s="6" t="str">
+      <c r="F101" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F101" s="6" t="str">
+      <c r="G101" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G101" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H101" s="3"/>
@@ -4609,30 +4095,25 @@
       <c r="O101" s="3"/>
       <c r="P101" s="3"/>
       <c r="Q101" s="3"/>
-      <c r="R101" s="3"/>
-      <c r="S101" s="3"/>
-      <c r="T101" s="3"/>
-      <c r="U101" s="3"/>
-      <c r="V101" s="3"/>
-    </row>
-    <row r="102" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E102" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E102" s="6" t="str">
+      <c r="F102" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F102" s="6" t="str">
+      <c r="G102" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G102" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H102" s="3"/>
@@ -4645,30 +4126,25 @@
       <c r="O102" s="3"/>
       <c r="P102" s="3"/>
       <c r="Q102" s="3"/>
-      <c r="R102" s="3"/>
-      <c r="S102" s="3"/>
-      <c r="T102" s="3"/>
-      <c r="U102" s="3"/>
-      <c r="V102" s="3"/>
-    </row>
-    <row r="103" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E103" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E103" s="6" t="str">
+      <c r="F103" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F103" s="6" t="str">
+      <c r="G103" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G103" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H103" s="3"/>
@@ -4681,30 +4157,25 @@
       <c r="O103" s="3"/>
       <c r="P103" s="3"/>
       <c r="Q103" s="3"/>
-      <c r="R103" s="3"/>
-      <c r="S103" s="3"/>
-      <c r="T103" s="3"/>
-      <c r="U103" s="3"/>
-      <c r="V103" s="3"/>
-    </row>
-    <row r="104" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E104" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E104" s="6" t="str">
+      <c r="F104" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F104" s="6" t="str">
+      <c r="G104" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G104" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H104" s="3"/>
@@ -4717,30 +4188,25 @@
       <c r="O104" s="3"/>
       <c r="P104" s="3"/>
       <c r="Q104" s="3"/>
-      <c r="R104" s="3"/>
-      <c r="S104" s="3"/>
-      <c r="T104" s="3"/>
-      <c r="U104" s="3"/>
-      <c r="V104" s="3"/>
-    </row>
-    <row r="105" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E105" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E105" s="6" t="str">
+      <c r="F105" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F105" s="6" t="str">
+      <c r="G105" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G105" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H105" s="3"/>
@@ -4753,30 +4219,25 @@
       <c r="O105" s="3"/>
       <c r="P105" s="3"/>
       <c r="Q105" s="3"/>
-      <c r="R105" s="3"/>
-      <c r="S105" s="3"/>
-      <c r="T105" s="3"/>
-      <c r="U105" s="3"/>
-      <c r="V105" s="3"/>
-    </row>
-    <row r="106" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E106" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E106" s="6" t="str">
+      <c r="F106" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F106" s="6" t="str">
+      <c r="G106" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G106" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H106" s="3"/>
@@ -4789,30 +4250,25 @@
       <c r="O106" s="3"/>
       <c r="P106" s="3"/>
       <c r="Q106" s="3"/>
-      <c r="R106" s="3"/>
-      <c r="S106" s="3"/>
-      <c r="T106" s="3"/>
-      <c r="U106" s="3"/>
-      <c r="V106" s="3"/>
-    </row>
-    <row r="107" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E107" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E107" s="6" t="str">
+      <c r="F107" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F107" s="6" t="str">
+      <c r="G107" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G107" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H107" s="3"/>
@@ -4825,30 +4281,25 @@
       <c r="O107" s="3"/>
       <c r="P107" s="3"/>
       <c r="Q107" s="3"/>
-      <c r="R107" s="3"/>
-      <c r="S107" s="3"/>
-      <c r="T107" s="3"/>
-      <c r="U107" s="3"/>
-      <c r="V107" s="3"/>
-    </row>
-    <row r="108" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E108" s="6" t="str">
+        <f t="shared" ref="E108:E130" si="9">IF((L108)&gt;=50,20,"")</f>
+        <v/>
+      </c>
+      <c r="F108" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F108" s="6" t="str">
+      <c r="G108" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G108" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H108" s="3"/>
@@ -4861,30 +4312,25 @@
       <c r="O108" s="3"/>
       <c r="P108" s="3"/>
       <c r="Q108" s="3"/>
-      <c r="R108" s="3"/>
-      <c r="S108" s="3"/>
-      <c r="T108" s="3"/>
-      <c r="U108" s="3"/>
-      <c r="V108" s="3"/>
-    </row>
-    <row r="109" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E109" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F109" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F109" s="6" t="str">
+      <c r="G109" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G109" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H109" s="3"/>
@@ -4897,30 +4343,25 @@
       <c r="O109" s="3"/>
       <c r="P109" s="3"/>
       <c r="Q109" s="3"/>
-      <c r="R109" s="3"/>
-      <c r="S109" s="3"/>
-      <c r="T109" s="3"/>
-      <c r="U109" s="3"/>
-      <c r="V109" s="3"/>
-    </row>
-    <row r="110" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E110" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F110" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F110" s="6" t="str">
+      <c r="G110" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G110" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H110" s="3"/>
@@ -4933,30 +4374,25 @@
       <c r="O110" s="3"/>
       <c r="P110" s="3"/>
       <c r="Q110" s="3"/>
-      <c r="R110" s="3"/>
-      <c r="S110" s="3"/>
-      <c r="T110" s="3"/>
-      <c r="U110" s="3"/>
-      <c r="V110" s="3"/>
-    </row>
-    <row r="111" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E111" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F111" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F111" s="6" t="str">
+      <c r="G111" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G111" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H111" s="3"/>
@@ -4969,30 +4405,25 @@
       <c r="O111" s="3"/>
       <c r="P111" s="3"/>
       <c r="Q111" s="3"/>
-      <c r="R111" s="3"/>
-      <c r="S111" s="3"/>
-      <c r="T111" s="3"/>
-      <c r="U111" s="3"/>
-      <c r="V111" s="3"/>
-    </row>
-    <row r="112" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E112" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F112" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F112" s="6" t="str">
+      <c r="G112" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G112" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H112" s="3"/>
@@ -5005,30 +4436,25 @@
       <c r="O112" s="3"/>
       <c r="P112" s="3"/>
       <c r="Q112" s="3"/>
-      <c r="R112" s="3"/>
-      <c r="S112" s="3"/>
-      <c r="T112" s="3"/>
-      <c r="U112" s="3"/>
-      <c r="V112" s="3"/>
-    </row>
-    <row r="113" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E113" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F113" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F113" s="6" t="str">
+      <c r="G113" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G113" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H113" s="3"/>
@@ -5041,30 +4467,25 @@
       <c r="O113" s="3"/>
       <c r="P113" s="3"/>
       <c r="Q113" s="3"/>
-      <c r="R113" s="3"/>
-      <c r="S113" s="3"/>
-      <c r="T113" s="3"/>
-      <c r="U113" s="3"/>
-      <c r="V113" s="3"/>
-    </row>
-    <row r="114" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E114" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F114" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F114" s="6" t="str">
+      <c r="G114" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G114" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H114" s="3"/>
@@ -5077,30 +4498,25 @@
       <c r="O114" s="3"/>
       <c r="P114" s="3"/>
       <c r="Q114" s="3"/>
-      <c r="R114" s="3"/>
-      <c r="S114" s="3"/>
-      <c r="T114" s="3"/>
-      <c r="U114" s="3"/>
-      <c r="V114" s="3"/>
-    </row>
-    <row r="115" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E115" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F115" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F115" s="6" t="str">
+      <c r="G115" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G115" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H115" s="3"/>
@@ -5113,30 +4529,25 @@
       <c r="O115" s="3"/>
       <c r="P115" s="3"/>
       <c r="Q115" s="3"/>
-      <c r="R115" s="3"/>
-      <c r="S115" s="3"/>
-      <c r="T115" s="3"/>
-      <c r="U115" s="3"/>
-      <c r="V115" s="3"/>
-    </row>
-    <row r="116" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E116" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F116" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F116" s="6" t="str">
+      <c r="G116" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G116" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H116" s="3"/>
@@ -5149,30 +4560,25 @@
       <c r="O116" s="3"/>
       <c r="P116" s="3"/>
       <c r="Q116" s="3"/>
-      <c r="R116" s="3"/>
-      <c r="S116" s="3"/>
-      <c r="T116" s="3"/>
-      <c r="U116" s="3"/>
-      <c r="V116" s="3"/>
-    </row>
-    <row r="117" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E117" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F117" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F117" s="6" t="str">
+      <c r="G117" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G117" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H117" s="3"/>
@@ -5185,30 +4591,25 @@
       <c r="O117" s="3"/>
       <c r="P117" s="3"/>
       <c r="Q117" s="3"/>
-      <c r="R117" s="3"/>
-      <c r="S117" s="3"/>
-      <c r="T117" s="3"/>
-      <c r="U117" s="3"/>
-      <c r="V117" s="3"/>
-    </row>
-    <row r="118" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E118" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F118" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F118" s="6" t="str">
+      <c r="G118" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G118" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H118" s="3"/>
@@ -5221,30 +4622,25 @@
       <c r="O118" s="3"/>
       <c r="P118" s="3"/>
       <c r="Q118" s="3"/>
-      <c r="R118" s="3"/>
-      <c r="S118" s="3"/>
-      <c r="T118" s="3"/>
-      <c r="U118" s="3"/>
-      <c r="V118" s="3"/>
-    </row>
-    <row r="119" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E119" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F119" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F119" s="6" t="str">
+      <c r="G119" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G119" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H119" s="3"/>
@@ -5257,30 +4653,25 @@
       <c r="O119" s="3"/>
       <c r="P119" s="3"/>
       <c r="Q119" s="3"/>
-      <c r="R119" s="3"/>
-      <c r="S119" s="3"/>
-      <c r="T119" s="3"/>
-      <c r="U119" s="3"/>
-      <c r="V119" s="3"/>
-    </row>
-    <row r="120" spans="1:22" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E120" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F120" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F120" s="6" t="str">
+      <c r="G120" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G120" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H120" s="3"/>
@@ -5293,30 +4684,25 @@
       <c r="O120" s="3"/>
       <c r="P120" s="3"/>
       <c r="Q120" s="3"/>
-      <c r="R120" s="3"/>
-      <c r="S120" s="3"/>
-      <c r="T120" s="3"/>
-      <c r="U120" s="3"/>
-      <c r="V120" s="3"/>
-    </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E121" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F121" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F121" s="6" t="str">
+      <c r="G121" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G121" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H121" s="3"/>
@@ -5329,30 +4715,25 @@
       <c r="O121" s="3"/>
       <c r="P121" s="3"/>
       <c r="Q121" s="3"/>
-      <c r="R121" s="3"/>
-      <c r="S121" s="3"/>
-      <c r="T121" s="3"/>
-      <c r="U121" s="3"/>
-      <c r="V121" s="3"/>
-    </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E122" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F122" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F122" s="6" t="str">
+      <c r="G122" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G122" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H122" s="3"/>
@@ -5365,30 +4746,25 @@
       <c r="O122" s="3"/>
       <c r="P122" s="3"/>
       <c r="Q122" s="3"/>
-      <c r="R122" s="3"/>
-      <c r="S122" s="3"/>
-      <c r="T122" s="3"/>
-      <c r="U122" s="3"/>
-      <c r="V122" s="3"/>
-    </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E123" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F123" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F123" s="6" t="str">
+      <c r="G123" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G123" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H123" s="3"/>
@@ -5401,30 +4777,25 @@
       <c r="O123" s="3"/>
       <c r="P123" s="3"/>
       <c r="Q123" s="3"/>
-      <c r="R123" s="3"/>
-      <c r="S123" s="3"/>
-      <c r="T123" s="3"/>
-      <c r="U123" s="3"/>
-      <c r="V123" s="3"/>
-    </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E124" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F124" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F124" s="6" t="str">
+      <c r="G124" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G124" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H124" s="3"/>
@@ -5437,30 +4808,25 @@
       <c r="O124" s="3"/>
       <c r="P124" s="3"/>
       <c r="Q124" s="3"/>
-      <c r="R124" s="3"/>
-      <c r="S124" s="3"/>
-      <c r="T124" s="3"/>
-      <c r="U124" s="3"/>
-      <c r="V124" s="3"/>
-    </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E125" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F125" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F125" s="6" t="str">
+      <c r="G125" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G125" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H125" s="3"/>
@@ -5473,30 +4839,25 @@
       <c r="O125" s="3"/>
       <c r="P125" s="3"/>
       <c r="Q125" s="3"/>
-      <c r="R125" s="3"/>
-      <c r="S125" s="3"/>
-      <c r="T125" s="3"/>
-      <c r="U125" s="3"/>
-      <c r="V125" s="3"/>
-    </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E126" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F126" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F126" s="6" t="str">
+      <c r="G126" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G126" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H126" s="3"/>
@@ -5509,30 +4870,25 @@
       <c r="O126" s="3"/>
       <c r="P126" s="3"/>
       <c r="Q126" s="3"/>
-      <c r="R126" s="3"/>
-      <c r="S126" s="3"/>
-      <c r="T126" s="3"/>
-      <c r="U126" s="3"/>
-      <c r="V126" s="3"/>
-    </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E127" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F127" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F127" s="6" t="str">
+      <c r="G127" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G127" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H127" s="3"/>
@@ -5545,30 +4901,25 @@
       <c r="O127" s="3"/>
       <c r="P127" s="3"/>
       <c r="Q127" s="3"/>
-      <c r="R127" s="3"/>
-      <c r="S127" s="3"/>
-      <c r="T127" s="3"/>
-      <c r="U127" s="3"/>
-      <c r="V127" s="3"/>
-    </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E128" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F128" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F128" s="6" t="str">
+      <c r="G128" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G128" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H128" s="3"/>
@@ -5581,30 +4932,25 @@
       <c r="O128" s="3"/>
       <c r="P128" s="3"/>
       <c r="Q128" s="3"/>
-      <c r="R128" s="3"/>
-      <c r="S128" s="3"/>
-      <c r="T128" s="3"/>
-      <c r="U128" s="3"/>
-      <c r="V128" s="3"/>
-    </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E129" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F129" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F129" s="6" t="str">
+      <c r="G129" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G129" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H129" s="3"/>
@@ -5617,30 +4963,25 @@
       <c r="O129" s="3"/>
       <c r="P129" s="3"/>
       <c r="Q129" s="3"/>
-      <c r="R129" s="3"/>
-      <c r="S129" s="3"/>
-      <c r="T129" s="3"/>
-      <c r="U129" s="3"/>
-      <c r="V129" s="3"/>
-    </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E130" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F130" s="6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F130" s="6" t="str">
+      <c r="G130" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G130" s="6" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H130" s="3"/>
@@ -5653,18 +4994,13 @@
       <c r="O130" s="3"/>
       <c r="P130" s="3"/>
       <c r="Q130" s="3"/>
-      <c r="R130" s="3"/>
-      <c r="S130" s="3"/>
-      <c r="T130" s="3"/>
-      <c r="U130" s="3"/>
-      <c r="V130" s="3"/>
-    </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="6">
-        <f t="shared" ref="D131:D145" si="9">H131+I131+J131+K131+L131+M131+N131+O131+P131+Q131</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E131" s="6" t="str">
@@ -5689,18 +5025,13 @@
       <c r="O131" s="3"/>
       <c r="P131" s="3"/>
       <c r="Q131" s="3"/>
-      <c r="R131" s="3"/>
-      <c r="S131" s="3"/>
-      <c r="T131" s="3"/>
-      <c r="U131" s="3"/>
-      <c r="V131" s="3"/>
-    </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E132" s="6" t="str">
@@ -5725,18 +5056,13 @@
       <c r="O132" s="3"/>
       <c r="P132" s="3"/>
       <c r="Q132" s="3"/>
-      <c r="R132" s="3"/>
-      <c r="S132" s="3"/>
-      <c r="T132" s="3"/>
-      <c r="U132" s="3"/>
-      <c r="V132" s="3"/>
-    </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E133" s="6" t="str">
@@ -5761,18 +5087,13 @@
       <c r="O133" s="3"/>
       <c r="P133" s="3"/>
       <c r="Q133" s="3"/>
-      <c r="R133" s="3"/>
-      <c r="S133" s="3"/>
-      <c r="T133" s="3"/>
-      <c r="U133" s="3"/>
-      <c r="V133" s="3"/>
-    </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E134" s="6" t="str">
@@ -5797,18 +5118,13 @@
       <c r="O134" s="3"/>
       <c r="P134" s="3"/>
       <c r="Q134" s="3"/>
-      <c r="R134" s="3"/>
-      <c r="S134" s="3"/>
-      <c r="T134" s="3"/>
-      <c r="U134" s="3"/>
-      <c r="V134" s="3"/>
-    </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E135" s="6" t="str">
@@ -5833,18 +5149,13 @@
       <c r="O135" s="3"/>
       <c r="P135" s="3"/>
       <c r="Q135" s="3"/>
-      <c r="R135" s="3"/>
-      <c r="S135" s="3"/>
-      <c r="T135" s="3"/>
-      <c r="U135" s="3"/>
-      <c r="V135" s="3"/>
-    </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E136" s="6" t="str">
@@ -5869,18 +5180,13 @@
       <c r="O136" s="3"/>
       <c r="P136" s="3"/>
       <c r="Q136" s="3"/>
-      <c r="R136" s="3"/>
-      <c r="S136" s="3"/>
-      <c r="T136" s="3"/>
-      <c r="U136" s="3"/>
-      <c r="V136" s="3"/>
-    </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E137" s="6" t="str">
@@ -5905,18 +5211,13 @@
       <c r="O137" s="3"/>
       <c r="P137" s="3"/>
       <c r="Q137" s="3"/>
-      <c r="R137" s="3"/>
-      <c r="S137" s="3"/>
-      <c r="T137" s="3"/>
-      <c r="U137" s="3"/>
-      <c r="V137" s="3"/>
-    </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E138" s="6" t="str">
@@ -5941,18 +5242,13 @@
       <c r="O138" s="3"/>
       <c r="P138" s="3"/>
       <c r="Q138" s="3"/>
-      <c r="R138" s="3"/>
-      <c r="S138" s="3"/>
-      <c r="T138" s="3"/>
-      <c r="U138" s="3"/>
-      <c r="V138" s="3"/>
-    </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E139" s="6" t="str">
@@ -5977,18 +5273,13 @@
       <c r="O139" s="3"/>
       <c r="P139" s="3"/>
       <c r="Q139" s="3"/>
-      <c r="R139" s="3"/>
-      <c r="S139" s="3"/>
-      <c r="T139" s="3"/>
-      <c r="U139" s="3"/>
-      <c r="V139" s="3"/>
-    </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E140" s="6" t="str">
@@ -6013,18 +5304,13 @@
       <c r="O140" s="3"/>
       <c r="P140" s="3"/>
       <c r="Q140" s="3"/>
-      <c r="R140" s="3"/>
-      <c r="S140" s="3"/>
-      <c r="T140" s="3"/>
-      <c r="U140" s="3"/>
-      <c r="V140" s="3"/>
-    </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E141" s="6" t="str">
@@ -6049,18 +5335,13 @@
       <c r="O141" s="3"/>
       <c r="P141" s="3"/>
       <c r="Q141" s="3"/>
-      <c r="R141" s="3"/>
-      <c r="S141" s="3"/>
-      <c r="T141" s="3"/>
-      <c r="U141" s="3"/>
-      <c r="V141" s="3"/>
-    </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="D142:D171" si="13">H142+I142+J142+K142+L142</f>
         <v>0</v>
       </c>
       <c r="E142" s="6" t="str">
@@ -6085,18 +5366,13 @@
       <c r="O142" s="3"/>
       <c r="P142" s="3"/>
       <c r="Q142" s="3"/>
-      <c r="R142" s="3"/>
-      <c r="S142" s="3"/>
-      <c r="T142" s="3"/>
-      <c r="U142" s="3"/>
-      <c r="V142" s="3"/>
-    </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E143" s="6" t="str">
@@ -6121,18 +5397,13 @@
       <c r="O143" s="3"/>
       <c r="P143" s="3"/>
       <c r="Q143" s="3"/>
-      <c r="R143" s="3"/>
-      <c r="S143" s="3"/>
-      <c r="T143" s="3"/>
-      <c r="U143" s="3"/>
-      <c r="V143" s="3"/>
-    </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E144" s="6" t="str">
@@ -6157,18 +5428,13 @@
       <c r="O144" s="3"/>
       <c r="P144" s="3"/>
       <c r="Q144" s="3"/>
-      <c r="R144" s="3"/>
-      <c r="S144" s="3"/>
-      <c r="T144" s="3"/>
-      <c r="U144" s="3"/>
-      <c r="V144" s="3"/>
-    </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E145" s="6" t="str">
@@ -6193,18 +5459,13 @@
       <c r="O145" s="3"/>
       <c r="P145" s="3"/>
       <c r="Q145" s="3"/>
-      <c r="R145" s="3"/>
-      <c r="S145" s="3"/>
-      <c r="T145" s="3"/>
-      <c r="U145" s="3"/>
-      <c r="V145" s="3"/>
-    </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="6">
-        <f t="shared" ref="D131:D190" si="13">H146+I146+J146+K146+L146+M146+N146+O146+P146+Q146</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E146" s="6" t="str">
@@ -6229,13 +5490,8 @@
       <c r="O146" s="3"/>
       <c r="P146" s="3"/>
       <c r="Q146" s="3"/>
-      <c r="R146" s="3"/>
-      <c r="S146" s="3"/>
-      <c r="T146" s="3"/>
-      <c r="U146" s="3"/>
-      <c r="V146" s="3"/>
-    </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -6265,13 +5521,8 @@
       <c r="O147" s="3"/>
       <c r="P147" s="3"/>
       <c r="Q147" s="3"/>
-      <c r="R147" s="3"/>
-      <c r="S147" s="3"/>
-      <c r="T147" s="3"/>
-      <c r="U147" s="3"/>
-      <c r="V147" s="3"/>
-    </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -6301,13 +5552,8 @@
       <c r="O148" s="3"/>
       <c r="P148" s="3"/>
       <c r="Q148" s="3"/>
-      <c r="R148" s="3"/>
-      <c r="S148" s="3"/>
-      <c r="T148" s="3"/>
-      <c r="U148" s="3"/>
-      <c r="V148" s="3"/>
-    </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -6337,13 +5583,8 @@
       <c r="O149" s="3"/>
       <c r="P149" s="3"/>
       <c r="Q149" s="3"/>
-      <c r="R149" s="3"/>
-      <c r="S149" s="3"/>
-      <c r="T149" s="3"/>
-      <c r="U149" s="3"/>
-      <c r="V149" s="3"/>
-    </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -6373,13 +5614,8 @@
       <c r="O150" s="3"/>
       <c r="P150" s="3"/>
       <c r="Q150" s="3"/>
-      <c r="R150" s="3"/>
-      <c r="S150" s="3"/>
-      <c r="T150" s="3"/>
-      <c r="U150" s="3"/>
-      <c r="V150" s="3"/>
-    </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -6409,13 +5645,8 @@
       <c r="O151" s="3"/>
       <c r="P151" s="3"/>
       <c r="Q151" s="3"/>
-      <c r="R151" s="3"/>
-      <c r="S151" s="3"/>
-      <c r="T151" s="3"/>
-      <c r="U151" s="3"/>
-      <c r="V151" s="3"/>
-    </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -6445,13 +5676,8 @@
       <c r="O152" s="3"/>
       <c r="P152" s="3"/>
       <c r="Q152" s="3"/>
-      <c r="R152" s="3"/>
-      <c r="S152" s="3"/>
-      <c r="T152" s="3"/>
-      <c r="U152" s="3"/>
-      <c r="V152" s="3"/>
-    </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -6481,13 +5707,8 @@
       <c r="O153" s="3"/>
       <c r="P153" s="3"/>
       <c r="Q153" s="3"/>
-      <c r="R153" s="3"/>
-      <c r="S153" s="3"/>
-      <c r="T153" s="3"/>
-      <c r="U153" s="3"/>
-      <c r="V153" s="3"/>
-    </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -6517,13 +5738,8 @@
       <c r="O154" s="3"/>
       <c r="P154" s="3"/>
       <c r="Q154" s="3"/>
-      <c r="R154" s="3"/>
-      <c r="S154" s="3"/>
-      <c r="T154" s="3"/>
-      <c r="U154" s="3"/>
-      <c r="V154" s="3"/>
-    </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -6553,13 +5769,8 @@
       <c r="O155" s="3"/>
       <c r="P155" s="3"/>
       <c r="Q155" s="3"/>
-      <c r="R155" s="3"/>
-      <c r="S155" s="3"/>
-      <c r="T155" s="3"/>
-      <c r="U155" s="3"/>
-      <c r="V155" s="3"/>
-    </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -6589,13 +5800,8 @@
       <c r="O156" s="3"/>
       <c r="P156" s="3"/>
       <c r="Q156" s="3"/>
-      <c r="R156" s="3"/>
-      <c r="S156" s="3"/>
-      <c r="T156" s="3"/>
-      <c r="U156" s="3"/>
-      <c r="V156" s="3"/>
-    </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -6625,13 +5831,8 @@
       <c r="O157" s="3"/>
       <c r="P157" s="3"/>
       <c r="Q157" s="3"/>
-      <c r="R157" s="3"/>
-      <c r="S157" s="3"/>
-      <c r="T157" s="3"/>
-      <c r="U157" s="3"/>
-      <c r="V157" s="3"/>
-    </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -6661,13 +5862,8 @@
       <c r="O158" s="3"/>
       <c r="P158" s="3"/>
       <c r="Q158" s="3"/>
-      <c r="R158" s="3"/>
-      <c r="S158" s="3"/>
-      <c r="T158" s="3"/>
-      <c r="U158" s="3"/>
-      <c r="V158" s="3"/>
-    </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -6697,13 +5893,8 @@
       <c r="O159" s="3"/>
       <c r="P159" s="3"/>
       <c r="Q159" s="3"/>
-      <c r="R159" s="3"/>
-      <c r="S159" s="3"/>
-      <c r="T159" s="3"/>
-      <c r="U159" s="3"/>
-      <c r="V159" s="3"/>
-    </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -6733,13 +5924,8 @@
       <c r="O160" s="3"/>
       <c r="P160" s="3"/>
       <c r="Q160" s="3"/>
-      <c r="R160" s="3"/>
-      <c r="S160" s="3"/>
-      <c r="T160" s="3"/>
-      <c r="U160" s="3"/>
-      <c r="V160" s="3"/>
-    </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -6769,13 +5955,8 @@
       <c r="O161" s="3"/>
       <c r="P161" s="3"/>
       <c r="Q161" s="3"/>
-      <c r="R161" s="3"/>
-      <c r="S161" s="3"/>
-      <c r="T161" s="3"/>
-      <c r="U161" s="3"/>
-      <c r="V161" s="3"/>
-    </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -6805,13 +5986,8 @@
       <c r="O162" s="3"/>
       <c r="P162" s="3"/>
       <c r="Q162" s="3"/>
-      <c r="R162" s="3"/>
-      <c r="S162" s="3"/>
-      <c r="T162" s="3"/>
-      <c r="U162" s="3"/>
-      <c r="V162" s="3"/>
-    </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -6841,13 +6017,8 @@
       <c r="O163" s="3"/>
       <c r="P163" s="3"/>
       <c r="Q163" s="3"/>
-      <c r="R163" s="3"/>
-      <c r="S163" s="3"/>
-      <c r="T163" s="3"/>
-      <c r="U163" s="3"/>
-      <c r="V163" s="3"/>
-    </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -6877,13 +6048,8 @@
       <c r="O164" s="3"/>
       <c r="P164" s="3"/>
       <c r="Q164" s="3"/>
-      <c r="R164" s="3"/>
-      <c r="S164" s="3"/>
-      <c r="T164" s="3"/>
-      <c r="U164" s="3"/>
-      <c r="V164" s="3"/>
-    </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -6913,13 +6079,8 @@
       <c r="O165" s="3"/>
       <c r="P165" s="3"/>
       <c r="Q165" s="3"/>
-      <c r="R165" s="3"/>
-      <c r="S165" s="3"/>
-      <c r="T165" s="3"/>
-      <c r="U165" s="3"/>
-      <c r="V165" s="3"/>
-    </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -6949,13 +6110,8 @@
       <c r="O166" s="3"/>
       <c r="P166" s="3"/>
       <c r="Q166" s="3"/>
-      <c r="R166" s="3"/>
-      <c r="S166" s="3"/>
-      <c r="T166" s="3"/>
-      <c r="U166" s="3"/>
-      <c r="V166" s="3"/>
-    </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -6985,13 +6141,8 @@
       <c r="O167" s="3"/>
       <c r="P167" s="3"/>
       <c r="Q167" s="3"/>
-      <c r="R167" s="3"/>
-      <c r="S167" s="3"/>
-      <c r="T167" s="3"/>
-      <c r="U167" s="3"/>
-      <c r="V167" s="3"/>
-    </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -7021,13 +6172,8 @@
       <c r="O168" s="3"/>
       <c r="P168" s="3"/>
       <c r="Q168" s="3"/>
-      <c r="R168" s="3"/>
-      <c r="S168" s="3"/>
-      <c r="T168" s="3"/>
-      <c r="U168" s="3"/>
-      <c r="V168" s="3"/>
-    </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -7057,13 +6203,8 @@
       <c r="O169" s="3"/>
       <c r="P169" s="3"/>
       <c r="Q169" s="3"/>
-      <c r="R169" s="3"/>
-      <c r="S169" s="3"/>
-      <c r="T169" s="3"/>
-      <c r="U169" s="3"/>
-      <c r="V169" s="3"/>
-    </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -7093,13 +6234,8 @@
       <c r="O170" s="3"/>
       <c r="P170" s="3"/>
       <c r="Q170" s="3"/>
-      <c r="R170" s="3"/>
-      <c r="S170" s="3"/>
-      <c r="T170" s="3"/>
-      <c r="U170" s="3"/>
-      <c r="V170" s="3"/>
-    </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -7129,19 +6265,14 @@
       <c r="O171" s="3"/>
       <c r="P171" s="3"/>
       <c r="Q171" s="3"/>
-      <c r="R171" s="3"/>
-      <c r="S171" s="3"/>
-      <c r="T171" s="3"/>
-      <c r="U171" s="3"/>
-      <c r="V171" s="3"/>
-    </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
-      <c r="D172" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="D172" s="6" t="e">
+        <f>H172+I172+J172+K172+L172+#REF!+#REF!+#REF!+#REF!+#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E172" s="6" t="str">
         <f t="shared" si="10"/>
@@ -7165,19 +6296,14 @@
       <c r="O172" s="3"/>
       <c r="P172" s="3"/>
       <c r="Q172" s="3"/>
-      <c r="R172" s="3"/>
-      <c r="S172" s="3"/>
-      <c r="T172" s="3"/>
-      <c r="U172" s="3"/>
-      <c r="V172" s="3"/>
-    </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
-      <c r="D173" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="D173" s="6" t="e">
+        <f>H173+I173+J173+K173+L173+#REF!+#REF!+#REF!+#REF!+#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E173" s="6" t="str">
         <f t="shared" si="10"/>
@@ -7201,19 +6327,14 @@
       <c r="O173" s="3"/>
       <c r="P173" s="3"/>
       <c r="Q173" s="3"/>
-      <c r="R173" s="3"/>
-      <c r="S173" s="3"/>
-      <c r="T173" s="3"/>
-      <c r="U173" s="3"/>
-      <c r="V173" s="3"/>
-    </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
-      <c r="D174" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="D174" s="6" t="e">
+        <f>H174+I174+J174+K174+L174+#REF!+#REF!+#REF!+#REF!+#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E174" s="6" t="str">
         <f t="shared" si="10"/>
@@ -7237,19 +6358,14 @@
       <c r="O174" s="3"/>
       <c r="P174" s="3"/>
       <c r="Q174" s="3"/>
-      <c r="R174" s="3"/>
-      <c r="S174" s="3"/>
-      <c r="T174" s="3"/>
-      <c r="U174" s="3"/>
-      <c r="V174" s="3"/>
-    </row>
-    <row r="175" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
-      <c r="D175" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="D175" s="6" t="e">
+        <f>H175+I175+J175+K175+L175+#REF!+#REF!+#REF!+#REF!+#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E175" s="6" t="str">
         <f t="shared" si="10"/>
@@ -7273,19 +6389,14 @@
       <c r="O175" s="3"/>
       <c r="P175" s="3"/>
       <c r="Q175" s="3"/>
-      <c r="R175" s="3"/>
-      <c r="S175" s="3"/>
-      <c r="T175" s="3"/>
-      <c r="U175" s="3"/>
-      <c r="V175" s="3"/>
-    </row>
-    <row r="176" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
-      <c r="D176" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="D176" s="6" t="e">
+        <f>H176+I176+J176+K176+L176+#REF!+#REF!+#REF!+#REF!+#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E176" s="6" t="str">
         <f t="shared" si="10"/>
@@ -7309,19 +6420,14 @@
       <c r="O176" s="3"/>
       <c r="P176" s="3"/>
       <c r="Q176" s="3"/>
-      <c r="R176" s="3"/>
-      <c r="S176" s="3"/>
-      <c r="T176" s="3"/>
-      <c r="U176" s="3"/>
-      <c r="V176" s="3"/>
-    </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
-      <c r="D177" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="D177" s="6" t="e">
+        <f>H177+I177+J177+K177+L177+#REF!+#REF!+#REF!+#REF!+#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E177" s="6" t="str">
         <f t="shared" si="10"/>
@@ -7345,19 +6451,14 @@
       <c r="O177" s="3"/>
       <c r="P177" s="3"/>
       <c r="Q177" s="3"/>
-      <c r="R177" s="3"/>
-      <c r="S177" s="3"/>
-      <c r="T177" s="3"/>
-      <c r="U177" s="3"/>
-      <c r="V177" s="3"/>
-    </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
-      <c r="D178" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="D178" s="6" t="e">
+        <f>H178+I178+J178+K178+L178+#REF!+#REF!+#REF!+#REF!+#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E178" s="6" t="str">
         <f t="shared" si="10"/>
@@ -7381,19 +6482,14 @@
       <c r="O178" s="3"/>
       <c r="P178" s="3"/>
       <c r="Q178" s="3"/>
-      <c r="R178" s="3"/>
-      <c r="S178" s="3"/>
-      <c r="T178" s="3"/>
-      <c r="U178" s="3"/>
-      <c r="V178" s="3"/>
-    </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
-      <c r="D179" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="D179" s="6" t="e">
+        <f>H179+I179+J179+K179+L179+#REF!+#REF!+#REF!+#REF!+#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E179" s="6" t="str">
         <f t="shared" si="10"/>
@@ -7417,19 +6513,14 @@
       <c r="O179" s="3"/>
       <c r="P179" s="3"/>
       <c r="Q179" s="3"/>
-      <c r="R179" s="3"/>
-      <c r="S179" s="3"/>
-      <c r="T179" s="3"/>
-      <c r="U179" s="3"/>
-      <c r="V179" s="3"/>
-    </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
-      <c r="D180" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="D180" s="6" t="e">
+        <f>H180+I180+J180+K180+L180+#REF!+#REF!+#REF!+#REF!+#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E180" s="6" t="str">
         <f t="shared" si="10"/>
@@ -7453,19 +6544,14 @@
       <c r="O180" s="3"/>
       <c r="P180" s="3"/>
       <c r="Q180" s="3"/>
-      <c r="R180" s="3"/>
-      <c r="S180" s="3"/>
-      <c r="T180" s="3"/>
-      <c r="U180" s="3"/>
-      <c r="V180" s="3"/>
-    </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
-      <c r="D181" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="D181" s="6" t="e">
+        <f>H181+I181+J181+K181+L181+#REF!+#REF!+#REF!+#REF!+#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E181" s="6" t="str">
         <f t="shared" si="10"/>
@@ -7489,19 +6575,14 @@
       <c r="O181" s="3"/>
       <c r="P181" s="3"/>
       <c r="Q181" s="3"/>
-      <c r="R181" s="3"/>
-      <c r="S181" s="3"/>
-      <c r="T181" s="3"/>
-      <c r="U181" s="3"/>
-      <c r="V181" s="3"/>
-    </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
-      <c r="D182" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="D182" s="6" t="e">
+        <f>H182+I182+J182+K182+L182+#REF!+#REF!+#REF!+#REF!+#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E182" s="6" t="str">
         <f t="shared" si="10"/>
@@ -7525,19 +6606,14 @@
       <c r="O182" s="3"/>
       <c r="P182" s="3"/>
       <c r="Q182" s="3"/>
-      <c r="R182" s="3"/>
-      <c r="S182" s="3"/>
-      <c r="T182" s="3"/>
-      <c r="U182" s="3"/>
-      <c r="V182" s="3"/>
-    </row>
-    <row r="183" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
-      <c r="D183" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="D183" s="6" t="e">
+        <f>H183+I183+J183+K183+L183+#REF!+#REF!+#REF!+#REF!+#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E183" s="6" t="str">
         <f t="shared" si="10"/>
@@ -7561,19 +6637,14 @@
       <c r="O183" s="3"/>
       <c r="P183" s="3"/>
       <c r="Q183" s="3"/>
-      <c r="R183" s="3"/>
-      <c r="S183" s="3"/>
-      <c r="T183" s="3"/>
-      <c r="U183" s="3"/>
-      <c r="V183" s="3"/>
-    </row>
-    <row r="184" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
-      <c r="D184" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="D184" s="6" t="e">
+        <f>H184+I184+J184+K184+L184+#REF!+#REF!+#REF!+#REF!+#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E184" s="6" t="str">
         <f t="shared" si="10"/>
@@ -7597,19 +6668,14 @@
       <c r="O184" s="3"/>
       <c r="P184" s="3"/>
       <c r="Q184" s="3"/>
-      <c r="R184" s="3"/>
-      <c r="S184" s="3"/>
-      <c r="T184" s="3"/>
-      <c r="U184" s="3"/>
-      <c r="V184" s="3"/>
-    </row>
-    <row r="185" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
-      <c r="D185" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="D185" s="6" t="e">
+        <f>H185+I185+J185+K185+L185+#REF!+#REF!+#REF!+#REF!+#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E185" s="6" t="str">
         <f t="shared" si="10"/>
@@ -7633,19 +6699,14 @@
       <c r="O185" s="3"/>
       <c r="P185" s="3"/>
       <c r="Q185" s="3"/>
-      <c r="R185" s="3"/>
-      <c r="S185" s="3"/>
-      <c r="T185" s="3"/>
-      <c r="U185" s="3"/>
-      <c r="V185" s="3"/>
-    </row>
-    <row r="186" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
-      <c r="D186" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="D186" s="6" t="e">
+        <f>H186+I186+J186+K186+L186+#REF!+#REF!+#REF!+#REF!+#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E186" s="6" t="str">
         <f t="shared" si="10"/>
@@ -7669,19 +6730,14 @@
       <c r="O186" s="3"/>
       <c r="P186" s="3"/>
       <c r="Q186" s="3"/>
-      <c r="R186" s="3"/>
-      <c r="S186" s="3"/>
-      <c r="T186" s="3"/>
-      <c r="U186" s="3"/>
-      <c r="V186" s="3"/>
-    </row>
-    <row r="187" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
-      <c r="D187" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="D187" s="6" t="e">
+        <f>H187+I187+J187+K187+L187+#REF!+#REF!+#REF!+#REF!+#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E187" s="6" t="str">
         <f t="shared" si="10"/>
@@ -7705,19 +6761,14 @@
       <c r="O187" s="3"/>
       <c r="P187" s="3"/>
       <c r="Q187" s="3"/>
-      <c r="R187" s="3"/>
-      <c r="S187" s="3"/>
-      <c r="T187" s="3"/>
-      <c r="U187" s="3"/>
-      <c r="V187" s="3"/>
-    </row>
-    <row r="188" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
-      <c r="D188" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="D188" s="6" t="e">
+        <f>H188+I188+J188+K188+L188+#REF!+#REF!+#REF!+#REF!+#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E188" s="6" t="str">
         <f t="shared" si="10"/>
@@ -7741,19 +6792,14 @@
       <c r="O188" s="3"/>
       <c r="P188" s="3"/>
       <c r="Q188" s="3"/>
-      <c r="R188" s="3"/>
-      <c r="S188" s="3"/>
-      <c r="T188" s="3"/>
-      <c r="U188" s="3"/>
-      <c r="V188" s="3"/>
-    </row>
-    <row r="189" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
-      <c r="D189" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="D189" s="6" t="e">
+        <f>H189+I189+J189+K189+L189+#REF!+#REF!+#REF!+#REF!+#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E189" s="6" t="str">
         <f t="shared" si="10"/>
@@ -7777,19 +6823,14 @@
       <c r="O189" s="3"/>
       <c r="P189" s="3"/>
       <c r="Q189" s="3"/>
-      <c r="R189" s="3"/>
-      <c r="S189" s="3"/>
-      <c r="T189" s="3"/>
-      <c r="U189" s="3"/>
-      <c r="V189" s="3"/>
-    </row>
-    <row r="190" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
-      <c r="D190" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="D190" s="6" t="e">
+        <f>H190+I190+J190+K190+L190+#REF!+#REF!+#REF!+#REF!+#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E190" s="6" t="str">
         <f t="shared" si="10"/>
@@ -7813,11 +6854,6 @@
       <c r="O190" s="3"/>
       <c r="P190" s="3"/>
       <c r="Q190" s="3"/>
-      <c r="R190" s="3"/>
-      <c r="S190" s="3"/>
-      <c r="T190" s="3"/>
-      <c r="U190" s="3"/>
-      <c r="V190" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>

--- a/OYM/_DocumentosComunes/AL.xlsx
+++ b/OYM/_DocumentosComunes/AL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_DESARROLLO\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_DESARROLLO\DoCUniversitarios\OYM\_DocumentosComunes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E69689B-C401-45DA-8500-1BE8A709AA2E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA13F785-C133-45D7-9BA3-600159F7798A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/OYM/_DocumentosComunes/AL.xlsx
+++ b/OYM/_DocumentosComunes/AL.xlsx
@@ -773,8 +773,8 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A190" sqref="A36:XFD190"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -943,7 +943,9 @@
       <c r="F4" s="6">
         <v>20</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="6">
+        <v>40</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3">
         <v>1</v>
@@ -956,11 +958,11 @@
       </c>
       <c r="N4">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="O4">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1017,13 +1019,14 @@
         <v>10</v>
       </c>
       <c r="E6" s="6">
-        <f t="shared" si="1"/>
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="F6" s="6">
         <v>20</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="6">
+        <v>50</v>
+      </c>
       <c r="H6" s="3">
         <v>1</v>
       </c>
@@ -1044,11 +1047,11 @@
       </c>
       <c r="N6">
         <f t="shared" si="2"/>
-        <v>40.5</v>
+        <v>91</v>
       </c>
       <c r="O6">
         <f t="shared" si="3"/>
-        <v>90.5</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1066,13 +1069,14 @@
         <v>10</v>
       </c>
       <c r="E7" s="6">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="F7" s="6">
         <v>18</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="6">
+        <v>39</v>
+      </c>
       <c r="H7" s="3">
         <v>1</v>
       </c>
@@ -1089,11 +1093,11 @@
       <c r="M7" s="9"/>
       <c r="N7">
         <f t="shared" si="2"/>
-        <v>30.5</v>
+        <v>70</v>
       </c>
       <c r="O7">
         <f t="shared" si="3"/>
-        <v>80.5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1148,13 +1152,14 @@
         <v>9</v>
       </c>
       <c r="E9" s="6">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="F9" s="6">
         <v>16</v>
       </c>
-      <c r="G9" s="6"/>
+      <c r="G9" s="6">
+        <v>42</v>
+      </c>
       <c r="H9" s="3">
         <v>1</v>
       </c>
@@ -1169,11 +1174,11 @@
       <c r="M9" s="9"/>
       <c r="N9">
         <f t="shared" si="2"/>
-        <v>27.5</v>
+        <v>70</v>
       </c>
       <c r="O9">
         <f t="shared" si="3"/>
-        <v>77.5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1343,13 +1348,14 @@
         <v>10</v>
       </c>
       <c r="E14" s="6">
-        <f t="shared" si="1"/>
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="F14" s="6">
         <v>20</v>
       </c>
-      <c r="G14" s="6"/>
+      <c r="G14" s="6">
+        <v>45</v>
+      </c>
       <c r="H14" s="3">
         <v>1</v>
       </c>
@@ -1370,11 +1376,11 @@
       </c>
       <c r="N14">
         <f t="shared" si="2"/>
-        <v>37.5</v>
+        <v>85</v>
       </c>
       <c r="O14">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1388,17 +1394,17 @@
         <v>33</v>
       </c>
       <c r="D15" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E15" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F15" s="6">
-        <v>10</v>
-      </c>
-      <c r="G15" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="G15" s="6">
+        <v>40</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3">
         <v>1</v>
@@ -1411,11 +1417,11 @@
       <c r="M15" s="9"/>
       <c r="N15">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="O15">
         <f t="shared" si="3"/>
-        <v>69</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1575,13 +1581,14 @@
         <v>10</v>
       </c>
       <c r="E20" s="6">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F20" s="6">
         <v>20</v>
       </c>
-      <c r="G20" s="6"/>
+      <c r="G20" s="6">
+        <v>50</v>
+      </c>
       <c r="H20" s="3">
         <v>1</v>
       </c>
@@ -1600,11 +1607,11 @@
       </c>
       <c r="N20">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="O20">
         <f t="shared" si="3"/>
-        <v>83</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1622,13 +1629,14 @@
         <v>10</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="F21" s="6">
         <v>20</v>
       </c>
-      <c r="G21" s="6"/>
+      <c r="G21" s="6">
+        <v>50</v>
+      </c>
       <c r="H21" s="3">
         <v>1</v>
       </c>
@@ -1647,11 +1655,11 @@
       </c>
       <c r="N21">
         <f t="shared" si="2"/>
-        <v>34.5</v>
+        <v>90</v>
       </c>
       <c r="O21">
         <f t="shared" si="3"/>
-        <v>84.5</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1774,13 +1782,14 @@
         <v>10</v>
       </c>
       <c r="E25" s="6">
-        <f t="shared" si="1"/>
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="F25" s="6">
         <v>20</v>
       </c>
-      <c r="G25" s="6"/>
+      <c r="G25" s="6">
+        <v>50</v>
+      </c>
       <c r="H25" s="3">
         <v>1</v>
       </c>
@@ -1801,11 +1810,11 @@
       </c>
       <c r="N25">
         <f t="shared" si="2"/>
-        <v>40.5</v>
+        <v>90</v>
       </c>
       <c r="O25">
         <f t="shared" si="3"/>
-        <v>90.5</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1823,13 +1832,14 @@
         <v>10</v>
       </c>
       <c r="E26" s="6">
-        <f t="shared" si="1"/>
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="F26" s="6">
         <v>20</v>
       </c>
-      <c r="G26" s="6"/>
+      <c r="G26" s="6">
+        <v>50</v>
+      </c>
       <c r="H26" s="3">
         <v>1</v>
       </c>
@@ -1848,11 +1858,11 @@
       </c>
       <c r="N26">
         <f t="shared" si="2"/>
-        <v>36.5</v>
+        <v>90</v>
       </c>
       <c r="O26">
         <f t="shared" si="3"/>
-        <v>86.5</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1948,13 +1958,14 @@
         <v>10</v>
       </c>
       <c r="E29" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="6">
         <v>19</v>
       </c>
-      <c r="G29" s="6"/>
+      <c r="G29" s="6">
+        <v>40</v>
+      </c>
       <c r="H29" s="3">
         <v>1</v>
       </c>
@@ -1969,11 +1980,11 @@
       <c r="M29" s="9"/>
       <c r="N29">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="O29">
         <f t="shared" si="3"/>
-        <v>79</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2073,13 +2084,14 @@
         <v>10</v>
       </c>
       <c r="E32" s="6">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F32" s="6">
         <v>20</v>
       </c>
-      <c r="G32" s="6"/>
+      <c r="G32" s="6">
+        <v>45</v>
+      </c>
       <c r="H32" s="3">
         <v>1</v>
       </c>
@@ -2100,11 +2112,11 @@
       </c>
       <c r="N32">
         <f t="shared" si="2"/>
-        <v>34.5</v>
+        <v>80</v>
       </c>
       <c r="O32">
         <f t="shared" si="3"/>
-        <v>84.5</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2122,13 +2134,14 @@
         <v>10</v>
       </c>
       <c r="E33" s="6">
-        <f t="shared" si="1"/>
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="F33" s="6">
         <v>20</v>
       </c>
-      <c r="G33" s="6"/>
+      <c r="G33" s="6">
+        <v>50</v>
+      </c>
       <c r="H33" s="3">
         <v>1</v>
       </c>
@@ -2149,11 +2162,11 @@
       </c>
       <c r="N33">
         <f t="shared" si="2"/>
-        <v>40.5</v>
+        <v>91</v>
       </c>
       <c r="O33">
         <f t="shared" si="3"/>
-        <v>90.5</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2167,8 +2180,7 @@
         <v>71</v>
       </c>
       <c r="D34" s="6">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E34" s="6">
         <f t="shared" si="1"/>
@@ -2177,7 +2189,9 @@
       <c r="F34" s="6">
         <v>10</v>
       </c>
-      <c r="G34" s="6"/>
+      <c r="G34" s="6">
+        <v>50</v>
+      </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -2186,11 +2200,11 @@
       <c r="M34" s="9"/>
       <c r="N34">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="O34">
         <f t="shared" si="3"/>
-        <v>67</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2208,13 +2222,14 @@
         <v>10</v>
       </c>
       <c r="E35" s="6">
-        <f t="shared" si="1"/>
-        <v>10.5</v>
+        <v>20</v>
       </c>
       <c r="F35" s="6">
         <v>20</v>
       </c>
-      <c r="G35" s="6"/>
+      <c r="G35" s="6">
+        <v>50</v>
+      </c>
       <c r="H35" s="3">
         <v>1</v>
       </c>
@@ -2235,11 +2250,11 @@
       </c>
       <c r="N35">
         <f t="shared" si="2"/>
-        <v>40.5</v>
+        <v>100</v>
       </c>
       <c r="O35">
         <f t="shared" si="3"/>
-        <v>90.5</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/OYM/_DocumentosComunes/AL.xlsx
+++ b/OYM/_DocumentosComunes/AL.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\_DESARROLLO\_DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_DESARROLLO\DoCUniversitarios\OYM\_DocumentosComunes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF705FC8-6F8F-4D93-9887-E7DE89865E63}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Page 1'!$A$1:$J$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Page 1'!$A$1:$G$35</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -274,7 +275,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -766,7 +767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -774,10 +775,10 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -897,14 +898,8 @@
       <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6">
-        <f t="shared" ref="D3:D35" si="0">(H3+I3+J3+7)</f>
-        <v>7</v>
-      </c>
-      <c r="E3" s="6">
-        <f t="shared" ref="E3:E35" si="1">K3+L3+M3</f>
-        <v>0</v>
-      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="3"/>
@@ -914,12 +909,12 @@
       <c r="L3" s="3"/>
       <c r="M3" s="9"/>
       <c r="N3">
-        <f t="shared" ref="N3:N35" si="2">D3+E3+F3+G3</f>
-        <v>7</v>
+        <f t="shared" ref="N3:N35" si="0">D3+E3+F3+G3</f>
+        <v>0</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O35" si="3">N3+50</f>
-        <v>57</v>
+        <f t="shared" ref="O3:O35" si="1">N3+50</f>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -933,11 +928,11 @@
         <v>11</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D3:D35" si="2">(H4+I4+J4+7)</f>
         <v>8</v>
       </c>
       <c r="E4" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E3:E34" si="3">K4+L4+M4</f>
         <v>4</v>
       </c>
       <c r="F4" s="6">
@@ -957,11 +952,11 @@
         <v>4</v>
       </c>
       <c r="N4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="O4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>122</v>
       </c>
     </row>
@@ -975,14 +970,8 @@
       <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E5" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="3">
@@ -996,12 +985,12 @@
       <c r="L5" s="3"/>
       <c r="M5" s="9"/>
       <c r="N5">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="O5">
-        <f t="shared" si="3"/>
-        <v>59</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1015,7 +1004,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="E6" s="6">
@@ -1046,11 +1035,11 @@
         <v>4</v>
       </c>
       <c r="N6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>91</v>
       </c>
       <c r="O6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>141</v>
       </c>
     </row>
@@ -1065,17 +1054,17 @@
         <v>17</v>
       </c>
       <c r="D7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="E7" s="6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F7" s="6">
         <v>18</v>
       </c>
       <c r="G7" s="6">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H7" s="3">
         <v>1</v>
@@ -1092,12 +1081,12 @@
       </c>
       <c r="M7" s="9"/>
       <c r="N7">
-        <f t="shared" si="2"/>
-        <v>70</v>
+        <f t="shared" si="0"/>
+        <v>73</v>
       </c>
       <c r="O7">
-        <f t="shared" si="3"/>
-        <v>120</v>
+        <f t="shared" si="1"/>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1111,11 +1100,10 @@
         <v>19</v>
       </c>
       <c r="D8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="E8" s="6">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F8" s="6">
@@ -1129,11 +1117,11 @@
       <c r="L8" s="3"/>
       <c r="M8" s="9"/>
       <c r="N8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="O8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
     </row>
@@ -1148,17 +1136,17 @@
         <v>21</v>
       </c>
       <c r="D9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="E9" s="6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F9" s="6">
         <v>16</v>
       </c>
       <c r="G9" s="6">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
@@ -1173,11 +1161,11 @@
       </c>
       <c r="M9" s="9"/>
       <c r="N9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="O9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
@@ -1191,14 +1179,8 @@
       <c r="C10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="6">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E10" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="3"/>
@@ -1208,12 +1190,12 @@
       <c r="L10" s="3"/>
       <c r="M10" s="9"/>
       <c r="N10">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="O10">
-        <f t="shared" si="3"/>
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1227,11 +1209,11 @@
         <v>25</v>
       </c>
       <c r="D11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="E11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F11" s="6">
@@ -1253,11 +1235,11 @@
       <c r="L11" s="3"/>
       <c r="M11" s="9"/>
       <c r="N11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="O11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
     </row>
@@ -1272,11 +1254,11 @@
         <v>27</v>
       </c>
       <c r="D12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="E12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F12" s="6">
@@ -1290,11 +1272,11 @@
       <c r="L12" s="3"/>
       <c r="M12" s="9"/>
       <c r="N12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="O12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
     </row>
@@ -1308,14 +1290,8 @@
       <c r="C13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="6">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E13" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="3"/>
@@ -1325,12 +1301,12 @@
       <c r="L13" s="3"/>
       <c r="M13" s="9"/>
       <c r="N13">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="O13">
-        <f t="shared" si="3"/>
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1344,7 +1320,7 @@
         <v>31</v>
       </c>
       <c r="D14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="E14" s="6">
@@ -1375,11 +1351,11 @@
         <v>4</v>
       </c>
       <c r="N14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="O14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>135</v>
       </c>
     </row>
@@ -1416,11 +1392,11 @@
       <c r="L15" s="3"/>
       <c r="M15" s="9"/>
       <c r="N15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="O15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
@@ -1435,11 +1411,11 @@
         <v>35</v>
       </c>
       <c r="D16" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="E16" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F16" s="6">
@@ -1453,11 +1429,11 @@
       <c r="L16" s="3"/>
       <c r="M16" s="9"/>
       <c r="N16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="O16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
     </row>
@@ -1471,14 +1447,8 @@
       <c r="C17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="6">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E17" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="3"/>
@@ -1488,12 +1458,12 @@
       <c r="L17" s="3"/>
       <c r="M17" s="9"/>
       <c r="N17">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="O17">
-        <f t="shared" si="3"/>
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1506,14 +1476,8 @@
       <c r="C18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="6">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E18" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="3"/>
@@ -1523,12 +1487,12 @@
       <c r="L18" s="3"/>
       <c r="M18" s="9"/>
       <c r="N18">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="O18">
-        <f t="shared" si="3"/>
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1541,14 +1505,8 @@
       <c r="C19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="6">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E19" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="3"/>
@@ -1558,12 +1516,12 @@
       <c r="L19" s="3"/>
       <c r="M19" s="9"/>
       <c r="N19">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="O19">
-        <f t="shared" si="3"/>
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1577,7 +1535,7 @@
         <v>43</v>
       </c>
       <c r="D20" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="E20" s="6">
@@ -1606,11 +1564,11 @@
         <v>2</v>
       </c>
       <c r="N20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="O20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
     </row>
@@ -1625,7 +1583,7 @@
         <v>45</v>
       </c>
       <c r="D21" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="E21" s="6">
@@ -1654,11 +1612,11 @@
         <v>2</v>
       </c>
       <c r="N21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="O21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
     </row>
@@ -1672,14 +1630,8 @@
       <c r="C22" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="6">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E22" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="3"/>
@@ -1689,12 +1641,12 @@
       <c r="L22" s="3"/>
       <c r="M22" s="9"/>
       <c r="N22">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="O22">
-        <f t="shared" si="3"/>
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1707,14 +1659,8 @@
       <c r="C23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="6">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E23" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="3"/>
@@ -1724,12 +1670,12 @@
       <c r="L23" s="3"/>
       <c r="M23" s="9"/>
       <c r="N23">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="O23">
-        <f t="shared" si="3"/>
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1742,14 +1688,8 @@
       <c r="C24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="6">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E24" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="3"/>
@@ -1759,12 +1699,12 @@
       <c r="L24" s="3"/>
       <c r="M24" s="9"/>
       <c r="N24">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="O24">
-        <f t="shared" si="3"/>
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1778,7 +1718,7 @@
         <v>53</v>
       </c>
       <c r="D25" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="E25" s="6">
@@ -1809,11 +1749,11 @@
         <v>7</v>
       </c>
       <c r="N25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="O25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
     </row>
@@ -1828,7 +1768,7 @@
         <v>55</v>
       </c>
       <c r="D26" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="E26" s="6">
@@ -1857,11 +1797,11 @@
         <v>4</v>
       </c>
       <c r="N26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="O26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
     </row>
@@ -1876,11 +1816,11 @@
         <v>57</v>
       </c>
       <c r="D27" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="E27" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F27" s="6">
@@ -1900,11 +1840,11 @@
       <c r="L27" s="3"/>
       <c r="M27" s="9"/>
       <c r="N27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="O27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
     </row>
@@ -1918,14 +1858,8 @@
       <c r="C28" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="6">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E28" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="3"/>
@@ -1935,12 +1869,12 @@
       <c r="L28" s="3"/>
       <c r="M28" s="9"/>
       <c r="N28">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="O28">
-        <f t="shared" si="3"/>
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1954,7 +1888,7 @@
         <v>61</v>
       </c>
       <c r="D29" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="E29" s="6">
@@ -1979,11 +1913,11 @@
       <c r="L29" s="3"/>
       <c r="M29" s="9"/>
       <c r="N29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="O29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
@@ -1997,14 +1931,8 @@
       <c r="C30" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E30" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="3"/>
@@ -2018,12 +1946,12 @@
       <c r="L30" s="3"/>
       <c r="M30" s="9"/>
       <c r="N30">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="O30">
-        <f t="shared" si="3"/>
-        <v>59</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2037,11 +1965,11 @@
         <v>65</v>
       </c>
       <c r="D31" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="E31" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F31" s="6">
@@ -2061,11 +1989,11 @@
       <c r="L31" s="3"/>
       <c r="M31" s="9"/>
       <c r="N31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="O31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
     </row>
@@ -2080,7 +2008,7 @@
         <v>67</v>
       </c>
       <c r="D32" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="E32" s="6">
@@ -2111,11 +2039,11 @@
         <v>1</v>
       </c>
       <c r="N32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="O32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
     </row>
@@ -2130,7 +2058,7 @@
         <v>69</v>
       </c>
       <c r="D33" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="E33" s="6">
@@ -2161,11 +2089,11 @@
         <v>7</v>
       </c>
       <c r="N33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>91</v>
       </c>
       <c r="O33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>141</v>
       </c>
     </row>
@@ -2183,7 +2111,7 @@
         <v>10</v>
       </c>
       <c r="E34" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F34" s="6">
@@ -2199,11 +2127,11 @@
       <c r="L34" s="3"/>
       <c r="M34" s="9"/>
       <c r="N34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="O34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
@@ -2218,7 +2146,7 @@
         <v>73</v>
       </c>
       <c r="D35" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="E35" s="6">
@@ -2249,11 +2177,11 @@
         <v>7</v>
       </c>
       <c r="N35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="O35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
     </row>
